--- a/Table/Table_xls/s升级经验限制表.xlsx
+++ b/Table/Table_xls/s升级经验限制表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="16425" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -964,10 +964,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -984,6 +984,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -996,47 +1010,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,8 +1031,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,31 +1046,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,22 +1064,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,6 +1120,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,7 +1187,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,7 +1217,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,31 +1259,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,43 +1283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,13 +1307,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,25 +1337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,19 +1361,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,24 +1411,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1468,6 +1450,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1498,148 +1498,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2063,8 +2063,8 @@
   <sheetPr/>
   <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81:H156"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2192,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="Q2" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R2" s="3">
         <v>300</v>
@@ -2248,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="Q3" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R3" s="3">
         <v>300</v>
@@ -2305,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="Q4" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R4" s="3">
         <v>300</v>
@@ -2362,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="Q5" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R5" s="3">
         <v>300</v>
@@ -2419,7 +2419,7 @@
         <v>10</v>
       </c>
       <c r="Q6" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R6" s="3">
         <v>300</v>
@@ -2476,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="Q7" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R7" s="3">
         <v>300</v>
@@ -2533,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="Q8" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
@@ -2590,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="Q9" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
@@ -2647,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="Q10" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
@@ -2704,7 +2704,7 @@
         <v>10</v>
       </c>
       <c r="Q11" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R11" s="3">
         <v>300</v>
@@ -2761,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
@@ -2818,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="Q13" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R13" s="3">
         <v>300</v>
@@ -2875,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="Q14" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R14" s="3">
         <v>300</v>
@@ -2932,7 +2932,7 @@
         <v>10</v>
       </c>
       <c r="Q15" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
@@ -2989,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="Q16" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R16" s="3">
         <v>300</v>
@@ -3046,7 +3046,7 @@
         <v>10</v>
       </c>
       <c r="Q17" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -3103,7 +3103,7 @@
         <v>10</v>
       </c>
       <c r="Q18" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R18" s="3">
         <v>300</v>
@@ -3160,7 +3160,7 @@
         <v>10</v>
       </c>
       <c r="Q19" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R19" s="3">
         <v>300</v>
@@ -3217,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="Q20" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R20" s="3">
         <v>300</v>
@@ -3274,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="Q21" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R21" s="3">
         <v>300</v>
@@ -3331,7 +3331,7 @@
         <v>10</v>
       </c>
       <c r="Q22" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -3388,7 +3388,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R23" s="3">
         <v>300</v>
@@ -3445,7 +3445,7 @@
         <v>10</v>
       </c>
       <c r="Q24" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
@@ -3502,7 +3502,7 @@
         <v>10</v>
       </c>
       <c r="Q25" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R25" s="3">
         <v>300</v>
@@ -3559,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="Q26" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R26" s="3">
         <v>300</v>
@@ -3616,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="Q27" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R27" s="3">
         <v>300</v>
@@ -3673,7 +3673,7 @@
         <v>10</v>
       </c>
       <c r="Q28" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R28" s="3">
         <v>300</v>
@@ -3730,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="Q29" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R29" s="3">
         <v>300</v>
@@ -3787,7 +3787,7 @@
         <v>10</v>
       </c>
       <c r="Q30" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R30" s="3">
         <v>300</v>
@@ -3844,7 +3844,7 @@
         <v>10</v>
       </c>
       <c r="Q31" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R31" s="3">
         <v>300</v>
@@ -3901,7 +3901,7 @@
         <v>10</v>
       </c>
       <c r="Q32" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R32" s="3">
         <v>300</v>
@@ -3958,7 +3958,7 @@
         <v>10</v>
       </c>
       <c r="Q33" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R33" s="3">
         <v>300</v>
@@ -4015,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="Q34" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R34" s="3">
         <v>300</v>
@@ -4072,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="Q35" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R35" s="3">
         <v>300</v>
@@ -4129,7 +4129,7 @@
         <v>10</v>
       </c>
       <c r="Q36" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R36" s="3">
         <v>300</v>
@@ -4186,7 +4186,7 @@
         <v>10</v>
       </c>
       <c r="Q37" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R37" s="3">
         <v>300</v>
@@ -4243,7 +4243,7 @@
         <v>10</v>
       </c>
       <c r="Q38" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R38" s="3">
         <v>300</v>
@@ -4300,7 +4300,7 @@
         <v>10</v>
       </c>
       <c r="Q39" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R39" s="3">
         <v>300</v>
@@ -4357,7 +4357,7 @@
         <v>10</v>
       </c>
       <c r="Q40" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R40" s="3">
         <v>300</v>
@@ -4414,7 +4414,7 @@
         <v>10</v>
       </c>
       <c r="Q41" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
@@ -4471,7 +4471,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R42" s="3">
         <v>300</v>
@@ -4528,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
@@ -4585,7 +4585,7 @@
         <v>13</v>
       </c>
       <c r="Q44" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
@@ -4642,7 +4642,7 @@
         <v>14</v>
       </c>
       <c r="Q45" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
@@ -4699,7 +4699,7 @@
         <v>15</v>
       </c>
       <c r="Q46" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
@@ -4756,7 +4756,7 @@
         <v>16</v>
       </c>
       <c r="Q47" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
@@ -4813,7 +4813,7 @@
         <v>17</v>
       </c>
       <c r="Q48" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
@@ -4870,7 +4870,7 @@
         <v>18</v>
       </c>
       <c r="Q49" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R49" s="3">
         <v>300</v>
@@ -4927,7 +4927,7 @@
         <v>19</v>
       </c>
       <c r="Q50" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R50" s="3">
         <v>300</v>
@@ -4984,7 +4984,7 @@
         <v>20</v>
       </c>
       <c r="Q51" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R51" s="3">
         <v>300</v>
@@ -5041,7 +5041,7 @@
         <v>21</v>
       </c>
       <c r="Q52" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
@@ -5098,7 +5098,7 @@
         <v>22</v>
       </c>
       <c r="Q53" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R53" s="3">
         <v>300</v>
@@ -5155,7 +5155,7 @@
         <v>23</v>
       </c>
       <c r="Q54" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
@@ -5212,7 +5212,7 @@
         <v>24</v>
       </c>
       <c r="Q55" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R55" s="3">
         <v>300</v>
@@ -5269,7 +5269,7 @@
         <v>25</v>
       </c>
       <c r="Q56" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R56" s="3">
         <v>300</v>
@@ -5326,7 +5326,7 @@
         <v>26</v>
       </c>
       <c r="Q57" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -5383,7 +5383,7 @@
         <v>27</v>
       </c>
       <c r="Q58" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -5440,7 +5440,7 @@
         <v>28</v>
       </c>
       <c r="Q59" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
@@ -5497,7 +5497,7 @@
         <v>29</v>
       </c>
       <c r="Q60" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
@@ -5554,7 +5554,7 @@
         <v>30</v>
       </c>
       <c r="Q61" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R61" s="3">
         <v>300</v>
@@ -5611,7 +5611,7 @@
         <v>31</v>
       </c>
       <c r="Q62" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R62" s="3">
         <v>300</v>
@@ -5668,7 +5668,7 @@
         <v>32</v>
       </c>
       <c r="Q63" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R63" s="3">
         <v>300</v>
@@ -5725,7 +5725,7 @@
         <v>33</v>
       </c>
       <c r="Q64" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R64" s="3">
         <v>300</v>
@@ -5782,7 +5782,7 @@
         <v>34</v>
       </c>
       <c r="Q65" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R65" s="3">
         <v>300</v>
@@ -5839,7 +5839,7 @@
         <v>35</v>
       </c>
       <c r="Q66" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -5896,7 +5896,7 @@
         <v>35</v>
       </c>
       <c r="Q67" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R67" s="3">
         <v>300</v>
@@ -5953,7 +5953,7 @@
         <v>35</v>
       </c>
       <c r="Q68" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R68" s="3">
         <v>300</v>
@@ -6010,7 +6010,7 @@
         <v>35</v>
       </c>
       <c r="Q69" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R69" s="3">
         <v>300</v>
@@ -6067,7 +6067,7 @@
         <v>35</v>
       </c>
       <c r="Q70" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R70" s="3">
         <v>300</v>
@@ -6124,7 +6124,7 @@
         <v>35</v>
       </c>
       <c r="Q71" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R71" s="3">
         <v>300</v>
@@ -6181,7 +6181,7 @@
         <v>35</v>
       </c>
       <c r="Q72" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R72" s="3">
         <v>300</v>
@@ -6238,7 +6238,7 @@
         <v>35</v>
       </c>
       <c r="Q73" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R73" s="3">
         <v>300</v>
@@ -6295,7 +6295,7 @@
         <v>35</v>
       </c>
       <c r="Q74" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R74" s="3">
         <v>300</v>
@@ -6352,7 +6352,7 @@
         <v>35</v>
       </c>
       <c r="Q75" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R75" s="3">
         <v>300</v>
@@ -6409,7 +6409,7 @@
         <v>35</v>
       </c>
       <c r="Q76" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R76" s="3">
         <v>300</v>
@@ -6466,7 +6466,7 @@
         <v>35</v>
       </c>
       <c r="Q77" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R77" s="3">
         <v>300</v>
@@ -6523,7 +6523,7 @@
         <v>35</v>
       </c>
       <c r="Q78" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R78" s="3">
         <v>300</v>
@@ -6580,7 +6580,7 @@
         <v>35</v>
       </c>
       <c r="Q79" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R79" s="3">
         <v>300</v>
@@ -6637,7 +6637,7 @@
         <v>35</v>
       </c>
       <c r="Q80" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R80" s="3">
         <v>300</v>
@@ -6694,7 +6694,7 @@
         <v>35</v>
       </c>
       <c r="Q81" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R81" s="3">
         <v>300</v>
@@ -6751,7 +6751,7 @@
         <v>35</v>
       </c>
       <c r="Q82" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R82" s="3">
         <v>300</v>
@@ -6808,7 +6808,7 @@
         <v>35</v>
       </c>
       <c r="Q83" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -6865,7 +6865,7 @@
         <v>35</v>
       </c>
       <c r="Q84" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R84" s="3">
         <v>300</v>
@@ -6922,7 +6922,7 @@
         <v>35</v>
       </c>
       <c r="Q85" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R85" s="3">
         <v>300</v>
@@ -6979,7 +6979,7 @@
         <v>35</v>
       </c>
       <c r="Q86" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R86" s="3">
         <v>300</v>
@@ -7036,7 +7036,7 @@
         <v>35</v>
       </c>
       <c r="Q87" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R87" s="3">
         <v>300</v>
@@ -7093,7 +7093,7 @@
         <v>35</v>
       </c>
       <c r="Q88" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R88" s="3">
         <v>300</v>
@@ -7150,7 +7150,7 @@
         <v>35</v>
       </c>
       <c r="Q89" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R89" s="3">
         <v>300</v>
@@ -7207,7 +7207,7 @@
         <v>35</v>
       </c>
       <c r="Q90" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R90" s="3">
         <v>300</v>
@@ -7264,7 +7264,7 @@
         <v>35</v>
       </c>
       <c r="Q91" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R91" s="3">
         <v>300</v>
@@ -7321,7 +7321,7 @@
         <v>35</v>
       </c>
       <c r="Q92" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R92" s="3">
         <v>300</v>
@@ -7378,7 +7378,7 @@
         <v>35</v>
       </c>
       <c r="Q93" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R93" s="3">
         <v>300</v>
@@ -7435,7 +7435,7 @@
         <v>35</v>
       </c>
       <c r="Q94" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R94" s="3">
         <v>300</v>
@@ -7492,7 +7492,7 @@
         <v>35</v>
       </c>
       <c r="Q95" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R95" s="3">
         <v>300</v>
@@ -7549,7 +7549,7 @@
         <v>35</v>
       </c>
       <c r="Q96" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R96" s="3">
         <v>300</v>
@@ -7606,7 +7606,7 @@
         <v>35</v>
       </c>
       <c r="Q97" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R97" s="3">
         <v>300</v>
@@ -7663,7 +7663,7 @@
         <v>35</v>
       </c>
       <c r="Q98" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R98" s="3">
         <v>300</v>
@@ -7720,7 +7720,7 @@
         <v>35</v>
       </c>
       <c r="Q99" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R99" s="3">
         <v>300</v>
@@ -7777,7 +7777,7 @@
         <v>35</v>
       </c>
       <c r="Q100" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R100" s="3">
         <v>300</v>
@@ -7834,7 +7834,7 @@
         <v>35</v>
       </c>
       <c r="Q101" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R101" s="3">
         <v>300</v>
@@ -7891,7 +7891,7 @@
         <v>35</v>
       </c>
       <c r="Q102" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R102" s="3">
         <v>300</v>
@@ -7948,7 +7948,7 @@
         <v>35</v>
       </c>
       <c r="Q103" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R103" s="3">
         <v>300</v>
@@ -8005,7 +8005,7 @@
         <v>35</v>
       </c>
       <c r="Q104" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R104" s="3">
         <v>300</v>
@@ -8062,7 +8062,7 @@
         <v>35</v>
       </c>
       <c r="Q105" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R105" s="3">
         <v>300</v>
@@ -8119,7 +8119,7 @@
         <v>35</v>
       </c>
       <c r="Q106" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R106" s="3">
         <v>300</v>
@@ -8176,7 +8176,7 @@
         <v>35</v>
       </c>
       <c r="Q107" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R107" s="3">
         <v>300</v>
@@ -8233,7 +8233,7 @@
         <v>35</v>
       </c>
       <c r="Q108" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R108" s="3">
         <v>300</v>
@@ -8290,7 +8290,7 @@
         <v>35</v>
       </c>
       <c r="Q109" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R109" s="3">
         <v>300</v>
@@ -8347,7 +8347,7 @@
         <v>35</v>
       </c>
       <c r="Q110" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R110" s="3">
         <v>300</v>
@@ -8404,7 +8404,7 @@
         <v>35</v>
       </c>
       <c r="Q111" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R111" s="3">
         <v>300</v>
@@ -8461,7 +8461,7 @@
         <v>35</v>
       </c>
       <c r="Q112" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R112" s="3">
         <v>300</v>
@@ -8518,7 +8518,7 @@
         <v>35</v>
       </c>
       <c r="Q113" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R113" s="3">
         <v>300</v>
@@ -8575,7 +8575,7 @@
         <v>35</v>
       </c>
       <c r="Q114" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R114" s="3">
         <v>300</v>
@@ -8632,7 +8632,7 @@
         <v>35</v>
       </c>
       <c r="Q115" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R115" s="3">
         <v>300</v>
@@ -8689,7 +8689,7 @@
         <v>35</v>
       </c>
       <c r="Q116" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R116" s="3">
         <v>300</v>
@@ -8746,7 +8746,7 @@
         <v>35</v>
       </c>
       <c r="Q117" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R117" s="3">
         <v>300</v>
@@ -8803,7 +8803,7 @@
         <v>35</v>
       </c>
       <c r="Q118" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R118" s="3">
         <v>300</v>
@@ -8860,7 +8860,7 @@
         <v>35</v>
       </c>
       <c r="Q119" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R119" s="3">
         <v>300</v>
@@ -8917,7 +8917,7 @@
         <v>35</v>
       </c>
       <c r="Q120" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R120" s="3">
         <v>300</v>
@@ -8974,7 +8974,7 @@
         <v>35</v>
       </c>
       <c r="Q121" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R121" s="3">
         <v>300</v>
@@ -9031,7 +9031,7 @@
         <v>35</v>
       </c>
       <c r="Q122" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R122" s="3">
         <v>300</v>
@@ -9088,7 +9088,7 @@
         <v>35</v>
       </c>
       <c r="Q123" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R123" s="3">
         <v>300</v>
@@ -9145,7 +9145,7 @@
         <v>35</v>
       </c>
       <c r="Q124" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R124" s="3">
         <v>300</v>
@@ -9202,7 +9202,7 @@
         <v>35</v>
       </c>
       <c r="Q125" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R125" s="3">
         <v>300</v>
@@ -9259,7 +9259,7 @@
         <v>35</v>
       </c>
       <c r="Q126" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R126" s="3">
         <v>300</v>
@@ -9316,7 +9316,7 @@
         <v>35</v>
       </c>
       <c r="Q127" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R127" s="3">
         <v>300</v>
@@ -9373,7 +9373,7 @@
         <v>35</v>
       </c>
       <c r="Q128" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R128" s="3">
         <v>300</v>
@@ -9430,7 +9430,7 @@
         <v>35</v>
       </c>
       <c r="Q129" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R129" s="3">
         <v>300</v>
@@ -9487,7 +9487,7 @@
         <v>35</v>
       </c>
       <c r="Q130" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R130" s="3">
         <v>300</v>
@@ -9544,7 +9544,7 @@
         <v>35</v>
       </c>
       <c r="Q131" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R131" s="3">
         <v>300</v>
@@ -9601,7 +9601,7 @@
         <v>35</v>
       </c>
       <c r="Q132" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R132" s="3">
         <v>300</v>
@@ -9658,7 +9658,7 @@
         <v>35</v>
       </c>
       <c r="Q133" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R133" s="3">
         <v>300</v>
@@ -9715,7 +9715,7 @@
         <v>35</v>
       </c>
       <c r="Q134" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R134" s="3">
         <v>300</v>
@@ -9772,7 +9772,7 @@
         <v>35</v>
       </c>
       <c r="Q135" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R135" s="3">
         <v>300</v>
@@ -9829,7 +9829,7 @@
         <v>35</v>
       </c>
       <c r="Q136" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R136" s="3">
         <v>300</v>
@@ -9886,7 +9886,7 @@
         <v>35</v>
       </c>
       <c r="Q137" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R137" s="3">
         <v>300</v>
@@ -9943,7 +9943,7 @@
         <v>35</v>
       </c>
       <c r="Q138" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R138" s="3">
         <v>300</v>
@@ -10000,7 +10000,7 @@
         <v>35</v>
       </c>
       <c r="Q139" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R139" s="3">
         <v>300</v>
@@ -10057,7 +10057,7 @@
         <v>35</v>
       </c>
       <c r="Q140" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R140" s="3">
         <v>300</v>
@@ -10114,7 +10114,7 @@
         <v>35</v>
       </c>
       <c r="Q141" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R141" s="3">
         <v>300</v>
@@ -10171,7 +10171,7 @@
         <v>35</v>
       </c>
       <c r="Q142" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R142" s="3">
         <v>300</v>
@@ -10228,7 +10228,7 @@
         <v>35</v>
       </c>
       <c r="Q143" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R143" s="3">
         <v>300</v>
@@ -10285,7 +10285,7 @@
         <v>35</v>
       </c>
       <c r="Q144" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R144" s="3">
         <v>300</v>
@@ -10342,7 +10342,7 @@
         <v>35</v>
       </c>
       <c r="Q145" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R145" s="3">
         <v>300</v>
@@ -10399,7 +10399,7 @@
         <v>35</v>
       </c>
       <c r="Q146" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R146" s="3">
         <v>300</v>
@@ -10456,7 +10456,7 @@
         <v>35</v>
       </c>
       <c r="Q147" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R147" s="3">
         <v>300</v>
@@ -10513,7 +10513,7 @@
         <v>35</v>
       </c>
       <c r="Q148" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R148" s="3">
         <v>300</v>
@@ -10570,7 +10570,7 @@
         <v>35</v>
       </c>
       <c r="Q149" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R149" s="3">
         <v>300</v>
@@ -10627,7 +10627,7 @@
         <v>35</v>
       </c>
       <c r="Q150" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R150" s="3">
         <v>300</v>
@@ -10684,7 +10684,7 @@
         <v>35</v>
       </c>
       <c r="Q151" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R151" s="3">
         <v>300</v>
@@ -10740,7 +10740,7 @@
         <v>35</v>
       </c>
       <c r="Q152" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R152" s="3">
         <v>300</v>
@@ -10797,7 +10797,7 @@
         <v>35</v>
       </c>
       <c r="Q153" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R153" s="3">
         <v>300</v>
@@ -10854,7 +10854,7 @@
         <v>35</v>
       </c>
       <c r="Q154" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R154" s="3">
         <v>300</v>
@@ -10910,7 +10910,7 @@
         <v>35</v>
       </c>
       <c r="Q155" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R155" s="3">
         <v>300</v>
@@ -10966,7 +10966,7 @@
         <v>35</v>
       </c>
       <c r="Q156" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="R156" s="3">
         <v>300</v>

--- a/Table/Table_xls/s升级经验限制表.xlsx
+++ b/Table/Table_xls/s升级经验限制表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 一场战斗可出战的宠物数量上限</t>
         </r>
       </text>
@@ -39,11 +38,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 每个等级对应的加点方案数量</t>
         </r>
       </text>
@@ -53,11 +51,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 10+min(max(RoleLv-40,0),25)</t>
         </r>
       </text>
@@ -67,11 +64,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 10+min(max(RoleLv-40,0),25)</t>
         </r>
       </text>
@@ -81,11 +77,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 10+min(max(RoleLv-40,0),25)</t>
         </r>
       </text>
@@ -95,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="280">
   <si>
     <t>等级</t>
   </si>
@@ -942,10 +937,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -959,27 +954,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -987,42 +994,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,14 +1008,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1051,19 +1023,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1075,25 +1045,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,8 +1067,50 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,7 +1137,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,7 +1167,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,7 +1227,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,37 +1275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,19 +1299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,96 +1317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1343,16 +1332,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,7 +1350,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,8 +1373,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,41 +1394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1454,153 +1408,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1623,11 +1597,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1683,6 +1657,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2009,37 +1988,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="13.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="1"/>
+    <col min="2" max="3" width="9.13888888888889" style="1"/>
+    <col min="4" max="4" width="13.1388888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8611111111111" customWidth="1"/>
+    <col min="6" max="6" width="9.13888888888889" style="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="13.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="19.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="16.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="13.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="19.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="18.8571428571429" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.8611111111111" customWidth="1"/>
+    <col min="9" max="9" width="13.4259259259259" customWidth="1"/>
+    <col min="10" max="10" width="19.287037037037" customWidth="1"/>
+    <col min="11" max="11" width="16.5740740740741" customWidth="1"/>
+    <col min="12" max="12" width="13.1388888888889" customWidth="1"/>
+    <col min="14" max="14" width="19.712962962963" customWidth="1"/>
+    <col min="15" max="15" width="18.8611111111111" style="2" customWidth="1"/>
     <col min="16" max="16" width="16" style="2" customWidth="1"/>
-    <col min="17" max="18" width="14.4285714285714" customWidth="1"/>
+    <col min="17" max="18" width="14.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2098,7 +2076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" ht="14.4" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="10">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2155,7 +2133,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" ht="14.4" spans="1:18">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2185,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2212,7 +2190,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" ht="14.4" spans="1:18">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2242,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2269,7 +2247,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" ht="14.4" spans="1:18">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2299,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="10">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2326,7 +2304,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" ht="14.4" spans="1:18">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2356,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="10">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2383,7 +2361,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" ht="14.4" spans="1:18">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2413,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="10">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2440,7 +2418,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" ht="14.4" spans="1:18">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2470,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="10">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2497,7 +2475,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" ht="14.4" spans="1:18">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2527,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="10">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2554,7 +2532,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" ht="14.4" spans="1:18">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2584,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="10">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2611,7 +2589,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" ht="14.4" spans="1:18">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2641,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="10">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2668,7 +2646,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" ht="14.4" spans="1:18">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2698,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="10">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2725,7 +2703,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" ht="14.4" spans="1:18">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2755,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="10">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2782,7 +2760,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" ht="14.4" spans="1:18">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2812,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="10">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2839,7 +2817,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" ht="14.4" spans="1:18">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2869,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="10">
-        <v>93</v>
+        <v>465</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2896,7 +2874,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" ht="14.4" spans="1:18">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2926,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2953,7 +2931,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" ht="14.4" spans="1:18">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2983,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="10">
-        <v>107</v>
+        <v>535</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3010,7 +2988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" ht="14.4" spans="1:18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -3040,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="10">
-        <v>113</v>
+        <v>565</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3067,7 +3045,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" ht="14.4" spans="1:18">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -3097,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="10">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3124,7 +3102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" ht="14.4" spans="1:18">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3154,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="10">
-        <v>127</v>
+        <v>635</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3181,7 +3159,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" ht="14.4" spans="1:18">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3211,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="10">
-        <v>133</v>
+        <v>665</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3238,7 +3216,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" ht="14.4" spans="1:18">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -3268,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="10">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3295,7 +3273,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" ht="14.4" spans="1:18">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -3325,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="10">
-        <v>147</v>
+        <v>735</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3352,7 +3330,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" ht="14.4" spans="1:18">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3382,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="10">
-        <v>153</v>
+        <v>765</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3409,7 +3387,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" ht="14.4" spans="1:18">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -3439,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="10">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3466,7 +3444,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" ht="14.4" spans="1:18">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3496,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="10">
-        <v>167</v>
+        <v>835</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3523,7 +3501,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" ht="14.4" spans="1:18">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -3553,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="10">
-        <v>173</v>
+        <v>865</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3580,7 +3558,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" ht="14.4" spans="1:18">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -3610,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="10">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3637,7 +3615,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" ht="14.4" spans="1:18">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -3667,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="10">
-        <v>187</v>
+        <v>935</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3694,7 +3672,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" ht="14.4" spans="1:18">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -3724,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="10">
-        <v>193</v>
+        <v>965</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3751,7 +3729,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" ht="14.4" spans="1:18">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3781,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="10">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3808,7 +3786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" ht="14.4" spans="1:18">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -3838,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="10">
-        <v>207</v>
+        <v>1035</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3865,7 +3843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" ht="14.4" spans="1:18">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3895,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="10">
-        <v>213</v>
+        <v>1065</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3922,7 +3900,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" ht="14.4" spans="1:18">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3952,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="10">
-        <v>220</v>
+        <v>1100</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3979,7 +3957,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" ht="14.4" spans="1:18">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -4009,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="10">
-        <v>227</v>
+        <v>1135</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -4036,7 +4014,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" ht="14.4" spans="1:18">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -4066,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="10">
-        <v>233</v>
+        <v>1165</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4093,7 +4071,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" ht="14.4" spans="1:18">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -4123,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="10">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4150,7 +4128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" ht="14.4" spans="1:18">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -4180,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="10">
-        <v>247</v>
+        <v>1235</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4207,7 +4185,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" ht="14.4" spans="1:18">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -4237,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="10">
-        <v>253</v>
+        <v>1265</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4264,7 +4242,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" ht="14.4" spans="1:18">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -4294,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="10">
-        <v>260</v>
+        <v>1300</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4321,7 +4299,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" ht="14.4" spans="1:18">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -4351,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="10">
-        <v>267</v>
+        <v>1335</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4378,7 +4356,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" ht="14.4" spans="1:18">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -4408,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="10">
-        <v>273</v>
+        <v>1365</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4435,7 +4413,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" ht="14.4" spans="1:18">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -4465,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="10">
-        <v>280</v>
+        <v>1400</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4492,7 +4470,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" ht="14.4" spans="1:18">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -4522,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="10">
-        <v>287</v>
+        <v>1435</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4549,7 +4527,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" ht="14.4" spans="1:18">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -4579,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="10">
-        <v>293</v>
+        <v>1465</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4606,7 +4584,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" ht="14.4" spans="1:18">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -4636,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="10">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4663,7 +4641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" ht="14.4" spans="1:18">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -4693,7 +4671,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="10">
-        <v>307</v>
+        <v>1535</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4720,7 +4698,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" ht="14.4" spans="1:18">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -4750,7 +4728,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="10">
-        <v>313</v>
+        <v>1565</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4777,7 +4755,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" ht="14.4" spans="1:18">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -4807,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="10">
-        <v>320</v>
+        <v>1600</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4834,7 +4812,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" ht="14.4" spans="1:18">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -4864,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="10">
-        <v>327</v>
+        <v>1635</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4891,7 +4869,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" ht="14.4" spans="1:18">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -4921,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="10">
-        <v>333</v>
+        <v>1665</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4948,7 +4926,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" ht="14.4" spans="1:18">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -4978,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="10">
-        <v>340</v>
+        <v>1700</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5005,7 +4983,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" ht="14.4" spans="1:18">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -5035,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="10">
-        <v>347</v>
+        <v>1735</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5062,7 +5040,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" ht="14.4" spans="1:18">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -5092,7 +5070,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="10">
-        <v>353</v>
+        <v>1765</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5119,7 +5097,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" ht="14.4" spans="1:18">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5149,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="10">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5176,7 +5154,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" ht="14.4" spans="1:18">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -5206,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="10">
-        <v>367</v>
+        <v>1835</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5233,7 +5211,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" ht="14.4" spans="1:18">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -5263,7 +5241,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="10">
-        <v>373</v>
+        <v>1865</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5290,7 +5268,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" ht="14.4" spans="1:18">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -5320,7 +5298,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="10">
-        <v>380</v>
+        <v>1900</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5347,7 +5325,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" ht="14.4" spans="1:18">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -5377,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="10">
-        <v>387</v>
+        <v>1935</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5404,7 +5382,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" ht="14.4" spans="1:18">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -5434,7 +5412,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="10">
-        <v>393</v>
+        <v>1965</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -5461,7 +5439,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" ht="14.4" spans="1:18">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -5491,7 +5469,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="10">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -5518,7 +5496,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" ht="14.4" spans="1:18">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -5548,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="10">
-        <v>407</v>
+        <v>2035</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5575,7 +5553,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" ht="14.4" spans="1:18">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -5605,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="10">
-        <v>413</v>
+        <v>2065</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5632,7 +5610,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" ht="14.4" spans="1:18">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -5662,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="10">
-        <v>420</v>
+        <v>2100</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -5689,7 +5667,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" ht="14.4" spans="1:18">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -5719,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="10">
-        <v>427</v>
+        <v>2135</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -5746,7 +5724,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" ht="14.4" spans="1:18">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -5776,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="J66" s="10">
-        <v>433</v>
+        <v>2165</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -5803,7 +5781,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" ht="14.4" spans="1:18">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -5833,7 +5811,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="10">
-        <v>440</v>
+        <v>2200</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -5860,7 +5838,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" ht="14.4" spans="1:18">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -5890,7 +5868,7 @@
         <v>2</v>
       </c>
       <c r="J68" s="10">
-        <v>447</v>
+        <v>2235</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -5917,7 +5895,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" ht="14.4" spans="1:18">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -5947,7 +5925,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="10">
-        <v>453</v>
+        <v>2265</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -5974,7 +5952,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" ht="14.4" spans="1:18">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -6004,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="J70" s="10">
-        <v>460</v>
+        <v>2300</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -6031,7 +6009,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" ht="14.4" spans="1:18">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -6061,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="10">
-        <v>467</v>
+        <v>2335</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -6088,7 +6066,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" ht="14.4" spans="1:18">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -6118,7 +6096,7 @@
         <v>2</v>
       </c>
       <c r="J72" s="10">
-        <v>473</v>
+        <v>2365</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -6145,7 +6123,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" ht="14.4" spans="1:18">
       <c r="A73" t="s">
         <v>113</v>
       </c>
@@ -6175,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="J73" s="10">
-        <v>480</v>
+        <v>2400</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -6202,7 +6180,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" ht="14.4" spans="1:18">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -6232,7 +6210,7 @@
         <v>2</v>
       </c>
       <c r="J74" s="10">
-        <v>487</v>
+        <v>2435</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -6259,7 +6237,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" ht="14.4" spans="1:18">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -6289,7 +6267,7 @@
         <v>2</v>
       </c>
       <c r="J75" s="10">
-        <v>493</v>
+        <v>2465</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -6316,7 +6294,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" ht="14.4" spans="1:18">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -6346,7 +6324,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="10">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -6373,7 +6351,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" ht="14.4" spans="1:18">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -6403,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="J77" s="10">
-        <v>507</v>
+        <v>2535</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -6430,7 +6408,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" ht="14.4" spans="1:18">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -6460,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="J78" s="10">
-        <v>513</v>
+        <v>2565</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -6487,7 +6465,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" ht="14.4" spans="1:18">
       <c r="A79" t="s">
         <v>125</v>
       </c>
@@ -6517,7 +6495,7 @@
         <v>2</v>
       </c>
       <c r="J79" s="10">
-        <v>520</v>
+        <v>2600</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -6544,7 +6522,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" ht="14.4" spans="1:18">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -6574,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="10">
-        <v>527</v>
+        <v>2635</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -6601,7 +6579,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" ht="14.4" spans="1:18">
       <c r="A81" t="s">
         <v>119</v>
       </c>
@@ -6631,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="J81" s="10">
-        <v>533</v>
+        <v>2665</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -6658,7 +6636,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" ht="14.4" spans="1:18">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -6688,7 +6666,7 @@
         <v>2</v>
       </c>
       <c r="J82" s="10">
-        <v>540</v>
+        <v>2700</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -6715,7 +6693,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" ht="14.4" spans="1:18">
       <c r="A83" t="s">
         <v>133</v>
       </c>
@@ -6745,7 +6723,7 @@
         <v>2</v>
       </c>
       <c r="J83" s="10">
-        <v>547</v>
+        <v>2735</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -6772,7 +6750,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" ht="14.4" spans="1:18">
       <c r="A84" t="s">
         <v>135</v>
       </c>
@@ -6802,7 +6780,7 @@
         <v>2</v>
       </c>
       <c r="J84" s="10">
-        <v>553</v>
+        <v>2765</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -6829,7 +6807,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" ht="14.4" spans="1:18">
       <c r="A85" t="s">
         <v>137</v>
       </c>
@@ -6859,7 +6837,7 @@
         <v>2</v>
       </c>
       <c r="J85" s="10">
-        <v>560</v>
+        <v>2800</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -6886,7 +6864,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" ht="14.4" spans="1:18">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -6916,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="J86" s="10">
-        <v>567</v>
+        <v>2835</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -6943,7 +6921,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" ht="14.4" spans="1:18">
       <c r="A87" t="s">
         <v>141</v>
       </c>
@@ -6973,7 +6951,7 @@
         <v>2</v>
       </c>
       <c r="J87" s="10">
-        <v>573</v>
+        <v>2865</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -7000,7 +6978,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" ht="14.4" spans="1:18">
       <c r="A88" t="s">
         <v>143</v>
       </c>
@@ -7030,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="J88" s="10">
-        <v>580</v>
+        <v>2900</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -7057,7 +7035,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" ht="14.4" spans="1:18">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -7087,7 +7065,7 @@
         <v>2</v>
       </c>
       <c r="J89" s="10">
-        <v>587</v>
+        <v>2935</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -7114,7 +7092,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" ht="14.4" spans="1:18">
       <c r="A90" t="s">
         <v>147</v>
       </c>
@@ -7144,7 +7122,7 @@
         <v>2</v>
       </c>
       <c r="J90" s="10">
-        <v>593</v>
+        <v>2965</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -7171,7 +7149,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" ht="14.4" spans="1:18">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -7201,7 +7179,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="10">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -7228,7 +7206,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" ht="14.4" spans="1:18">
       <c r="A92" t="s">
         <v>151</v>
       </c>
@@ -7258,7 +7236,7 @@
         <v>3</v>
       </c>
       <c r="J92" s="10">
-        <v>607</v>
+        <v>3035</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -7285,7 +7263,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" ht="14.4" spans="1:18">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -7315,7 +7293,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="10">
-        <v>613</v>
+        <v>3065</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -7342,7 +7320,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" ht="14.4" spans="1:18">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -7372,7 +7350,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="10">
-        <v>620</v>
+        <v>3100</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -7399,7 +7377,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" ht="14.4" spans="1:18">
       <c r="A95" t="s">
         <v>157</v>
       </c>
@@ -7429,7 +7407,7 @@
         <v>3</v>
       </c>
       <c r="J95" s="10">
-        <v>627</v>
+        <v>3135</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7456,7 +7434,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" ht="14.4" spans="1:18">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -7486,7 +7464,7 @@
         <v>3</v>
       </c>
       <c r="J96" s="10">
-        <v>633</v>
+        <v>3165</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -7513,7 +7491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" ht="14.4" spans="1:18">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -7543,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="J97" s="10">
-        <v>640</v>
+        <v>3200</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7570,7 +7548,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" ht="14.4" spans="1:18">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -7600,7 +7578,7 @@
         <v>3</v>
       </c>
       <c r="J98" s="10">
-        <v>647</v>
+        <v>3235</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -7627,7 +7605,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" ht="14.4" spans="1:18">
       <c r="A99" t="s">
         <v>165</v>
       </c>
@@ -7657,7 +7635,7 @@
         <v>3</v>
       </c>
       <c r="J99" s="10">
-        <v>653</v>
+        <v>3265</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -7684,7 +7662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" ht="14.4" spans="1:18">
       <c r="A100" t="s">
         <v>167</v>
       </c>
@@ -7714,7 +7692,7 @@
         <v>3</v>
       </c>
       <c r="J100" s="10">
-        <v>660</v>
+        <v>3300</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -7741,7 +7719,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" ht="14.4" spans="1:18">
       <c r="A101" t="s">
         <v>159</v>
       </c>
@@ -7771,7 +7749,7 @@
         <v>3</v>
       </c>
       <c r="J101" s="10">
-        <v>667</v>
+        <v>3335</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -7798,7 +7776,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" ht="14.4" spans="1:18">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -7828,7 +7806,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="10">
-        <v>673</v>
+        <v>3365</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -7855,7 +7833,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" ht="14.4" spans="1:18">
       <c r="A103" t="s">
         <v>173</v>
       </c>
@@ -7885,7 +7863,7 @@
         <v>3</v>
       </c>
       <c r="J103" s="10">
-        <v>680</v>
+        <v>3400</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -7912,7 +7890,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" ht="14.4" spans="1:18">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -7942,7 +7920,7 @@
         <v>3</v>
       </c>
       <c r="J104" s="10">
-        <v>687</v>
+        <v>3435</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -7969,7 +7947,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" ht="14.4" spans="1:18">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -7999,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="J105" s="10">
-        <v>693</v>
+        <v>3465</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -8026,7 +8004,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" ht="14.4" spans="1:18">
       <c r="A106" t="s">
         <v>169</v>
       </c>
@@ -8056,7 +8034,7 @@
         <v>3</v>
       </c>
       <c r="J106" s="10">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -8083,7 +8061,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" ht="14.4" spans="1:18">
       <c r="A107" t="s">
         <v>181</v>
       </c>
@@ -8113,7 +8091,7 @@
         <v>3</v>
       </c>
       <c r="J107" s="10">
-        <v>707</v>
+        <v>3535</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -8140,7 +8118,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" ht="14.4" spans="1:18">
       <c r="A108" t="s">
         <v>183</v>
       </c>
@@ -8170,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="J108" s="10">
-        <v>713</v>
+        <v>3565</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -8197,7 +8175,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" ht="14.4" spans="1:18">
       <c r="A109" t="s">
         <v>185</v>
       </c>
@@ -8227,7 +8205,7 @@
         <v>3</v>
       </c>
       <c r="J109" s="10">
-        <v>720</v>
+        <v>3600</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -8254,7 +8232,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" ht="14.4" spans="1:18">
       <c r="A110" t="s">
         <v>187</v>
       </c>
@@ -8284,7 +8262,7 @@
         <v>3</v>
       </c>
       <c r="J110" s="10">
-        <v>727</v>
+        <v>3635</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -8311,7 +8289,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" ht="14.4" spans="1:18">
       <c r="A111" t="s">
         <v>179</v>
       </c>
@@ -8341,7 +8319,7 @@
         <v>3</v>
       </c>
       <c r="J111" s="10">
-        <v>733</v>
+        <v>3665</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -8368,7 +8346,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" ht="14.4" spans="1:18">
       <c r="A112" t="s">
         <v>191</v>
       </c>
@@ -8398,7 +8376,7 @@
         <v>3</v>
       </c>
       <c r="J112" s="10">
-        <v>740</v>
+        <v>3700</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -8425,7 +8403,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" ht="14.4" spans="1:18">
       <c r="A113" t="s">
         <v>193</v>
       </c>
@@ -8455,7 +8433,7 @@
         <v>3</v>
       </c>
       <c r="J113" s="10">
-        <v>747</v>
+        <v>3735</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -8482,7 +8460,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" ht="14.4" spans="1:18">
       <c r="A114" t="s">
         <v>195</v>
       </c>
@@ -8512,7 +8490,7 @@
         <v>3</v>
       </c>
       <c r="J114" s="10">
-        <v>753</v>
+        <v>3765</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -8539,7 +8517,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" ht="14.4" spans="1:18">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -8569,7 +8547,7 @@
         <v>3</v>
       </c>
       <c r="J115" s="10">
-        <v>760</v>
+        <v>3800</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -8596,7 +8574,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" ht="14.4" spans="1:18">
       <c r="A116" t="s">
         <v>189</v>
       </c>
@@ -8626,7 +8604,7 @@
         <v>3</v>
       </c>
       <c r="J116" s="10">
-        <v>767</v>
+        <v>3835</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -8653,7 +8631,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" ht="14.4" spans="1:18">
       <c r="A117" t="s">
         <v>201</v>
       </c>
@@ -8683,7 +8661,7 @@
         <v>3</v>
       </c>
       <c r="J117" s="10">
-        <v>773</v>
+        <v>3865</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -8710,7 +8688,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" ht="14.4" spans="1:18">
       <c r="A118" t="s">
         <v>203</v>
       </c>
@@ -8740,7 +8718,7 @@
         <v>3</v>
       </c>
       <c r="J118" s="10">
-        <v>780</v>
+        <v>3900</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -8767,7 +8745,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" ht="14.4" spans="1:18">
       <c r="A119" t="s">
         <v>205</v>
       </c>
@@ -8797,7 +8775,7 @@
         <v>3</v>
       </c>
       <c r="J119" s="10">
-        <v>787</v>
+        <v>3935</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -8824,7 +8802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" ht="14.4" spans="1:18">
       <c r="A120" t="s">
         <v>207</v>
       </c>
@@ -8854,7 +8832,7 @@
         <v>3</v>
       </c>
       <c r="J120" s="10">
-        <v>793</v>
+        <v>3965</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -8881,7 +8859,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" ht="14.4" spans="1:18">
       <c r="A121" t="s">
         <v>199</v>
       </c>
@@ -8911,7 +8889,7 @@
         <v>3</v>
       </c>
       <c r="J121" s="10">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -8938,7 +8916,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" ht="14.4" spans="1:18">
       <c r="A122" t="s">
         <v>211</v>
       </c>
@@ -8968,7 +8946,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="10">
-        <v>807</v>
+        <v>4035</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -8995,7 +8973,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" ht="14.4" spans="1:18">
       <c r="A123" t="s">
         <v>213</v>
       </c>
@@ -9025,7 +9003,7 @@
         <v>3</v>
       </c>
       <c r="J123" s="10">
-        <v>813</v>
+        <v>4065</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -9052,7 +9030,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" ht="14.4" spans="1:18">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -9082,7 +9060,7 @@
         <v>3</v>
       </c>
       <c r="J124" s="10">
-        <v>820</v>
+        <v>4100</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -9109,7 +9087,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" ht="14.4" spans="1:18">
       <c r="A125" t="s">
         <v>217</v>
       </c>
@@ -9139,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="J125" s="10">
-        <v>827</v>
+        <v>4135</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -9166,7 +9144,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" ht="14.4" spans="1:18">
       <c r="A126" t="s">
         <v>209</v>
       </c>
@@ -9196,7 +9174,7 @@
         <v>3</v>
       </c>
       <c r="J126" s="10">
-        <v>833</v>
+        <v>4165</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -9223,7 +9201,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" ht="14.4" spans="1:18">
       <c r="A127" t="s">
         <v>221</v>
       </c>
@@ -9253,7 +9231,7 @@
         <v>3</v>
       </c>
       <c r="J127" s="10">
-        <v>840</v>
+        <v>4200</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -9280,7 +9258,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" ht="14.4" spans="1:18">
       <c r="A128" t="s">
         <v>223</v>
       </c>
@@ -9310,7 +9288,7 @@
         <v>3</v>
       </c>
       <c r="J128" s="10">
-        <v>847</v>
+        <v>4235</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -9337,7 +9315,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" ht="14.4" spans="1:18">
       <c r="A129" t="s">
         <v>225</v>
       </c>
@@ -9367,7 +9345,7 @@
         <v>3</v>
       </c>
       <c r="J129" s="10">
-        <v>853</v>
+        <v>4265</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -9394,7 +9372,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" ht="14.4" spans="1:18">
       <c r="A130" t="s">
         <v>227</v>
       </c>
@@ -9424,7 +9402,7 @@
         <v>3</v>
       </c>
       <c r="J130" s="10">
-        <v>860</v>
+        <v>4300</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -9451,7 +9429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" ht="14.4" spans="1:18">
       <c r="A131" t="s">
         <v>229</v>
       </c>
@@ -9481,7 +9459,7 @@
         <v>3</v>
       </c>
       <c r="J131" s="10">
-        <v>867</v>
+        <v>4335</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -9508,7 +9486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" ht="14.4" spans="1:18">
       <c r="A132" t="s">
         <v>231</v>
       </c>
@@ -9538,7 +9516,7 @@
         <v>3</v>
       </c>
       <c r="J132" s="10">
-        <v>873</v>
+        <v>4365</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -9565,7 +9543,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" ht="14.4" spans="1:18">
       <c r="A133" t="s">
         <v>233</v>
       </c>
@@ -9595,7 +9573,7 @@
         <v>3</v>
       </c>
       <c r="J133" s="10">
-        <v>880</v>
+        <v>4400</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -9622,7 +9600,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" ht="14.4" spans="1:18">
       <c r="A134" t="s">
         <v>235</v>
       </c>
@@ -9652,7 +9630,7 @@
         <v>3</v>
       </c>
       <c r="J134" s="10">
-        <v>887</v>
+        <v>4435</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -9679,7 +9657,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" ht="14.4" spans="1:18">
       <c r="A135" t="s">
         <v>237</v>
       </c>
@@ -9709,7 +9687,7 @@
         <v>3</v>
       </c>
       <c r="J135" s="10">
-        <v>893</v>
+        <v>4465</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -9736,7 +9714,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" ht="14.4" spans="1:18">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -9766,7 +9744,7 @@
         <v>3</v>
       </c>
       <c r="J136" s="10">
-        <v>900</v>
+        <v>4500</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -9793,7 +9771,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" ht="14.4" spans="1:18">
       <c r="A137" t="s">
         <v>241</v>
       </c>
@@ -9823,7 +9801,7 @@
         <v>3</v>
       </c>
       <c r="J137" s="10">
-        <v>907</v>
+        <v>4535</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -9850,7 +9828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" ht="14.4" spans="1:18">
       <c r="A138" t="s">
         <v>243</v>
       </c>
@@ -9880,7 +9858,7 @@
         <v>3</v>
       </c>
       <c r="J138" s="10">
-        <v>913</v>
+        <v>4565</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -9907,7 +9885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" ht="14.4" spans="1:18">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -9937,7 +9915,7 @@
         <v>3</v>
       </c>
       <c r="J139" s="10">
-        <v>920</v>
+        <v>4600</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -9964,7 +9942,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" ht="14.4" spans="1:18">
       <c r="A140" t="s">
         <v>247</v>
       </c>
@@ -9994,7 +9972,7 @@
         <v>3</v>
       </c>
       <c r="J140" s="10">
-        <v>927</v>
+        <v>4635</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -10021,7 +9999,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" ht="14.4" spans="1:18">
       <c r="A141" t="s">
         <v>249</v>
       </c>
@@ -10051,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="J141" s="10">
-        <v>933</v>
+        <v>4665</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -10078,7 +10056,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" ht="14.4" spans="1:18">
       <c r="A142" t="s">
         <v>251</v>
       </c>
@@ -10108,7 +10086,7 @@
         <v>3</v>
       </c>
       <c r="J142" s="10">
-        <v>940</v>
+        <v>4700</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -10135,7 +10113,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" ht="14.4" spans="1:18">
       <c r="A143" t="s">
         <v>253</v>
       </c>
@@ -10165,7 +10143,7 @@
         <v>3</v>
       </c>
       <c r="J143" s="10">
-        <v>947</v>
+        <v>4735</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -10192,7 +10170,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" ht="14.4" spans="1:18">
       <c r="A144" t="s">
         <v>255</v>
       </c>
@@ -10222,7 +10200,7 @@
         <v>3</v>
       </c>
       <c r="J144" s="10">
-        <v>953</v>
+        <v>4765</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -10249,7 +10227,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" ht="14.4" spans="1:18">
       <c r="A145" t="s">
         <v>257</v>
       </c>
@@ -10279,7 +10257,7 @@
         <v>3</v>
       </c>
       <c r="J145" s="10">
-        <v>960</v>
+        <v>4800</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -10306,7 +10284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" ht="14.4" spans="1:18">
       <c r="A146" t="s">
         <v>259</v>
       </c>
@@ -10336,7 +10314,7 @@
         <v>3</v>
       </c>
       <c r="J146" s="10">
-        <v>967</v>
+        <v>4835</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -10363,7 +10341,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" ht="14.4" spans="1:18">
       <c r="A147" t="s">
         <v>261</v>
       </c>
@@ -10393,7 +10371,7 @@
         <v>3</v>
       </c>
       <c r="J147" s="10">
-        <v>973</v>
+        <v>4865</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -10420,7 +10398,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" ht="14.4" spans="1:18">
       <c r="A148" t="s">
         <v>263</v>
       </c>
@@ -10450,7 +10428,7 @@
         <v>3</v>
       </c>
       <c r="J148" s="10">
-        <v>980</v>
+        <v>4900</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -10477,7 +10455,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" ht="14.4" spans="1:18">
       <c r="A149" t="s">
         <v>265</v>
       </c>
@@ -10507,7 +10485,7 @@
         <v>3</v>
       </c>
       <c r="J149" s="10">
-        <v>987</v>
+        <v>4935</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -10534,7 +10512,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" ht="14.4" spans="1:18">
       <c r="A150" t="s">
         <v>267</v>
       </c>
@@ -10564,7 +10542,7 @@
         <v>3</v>
       </c>
       <c r="J150" s="10">
-        <v>993</v>
+        <v>4965</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -10591,7 +10569,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" ht="14.4" spans="1:18">
       <c r="A151" t="s">
         <v>269</v>
       </c>
@@ -10621,7 +10599,7 @@
         <v>3</v>
       </c>
       <c r="J151" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -10648,7 +10626,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" ht="14.4" spans="1:18">
       <c r="A152" t="s">
         <v>271</v>
       </c>
@@ -10678,7 +10656,7 @@
         <v>3</v>
       </c>
       <c r="J152" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -10705,7 +10683,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" ht="14.4" spans="1:18">
       <c r="A153" t="s">
         <v>273</v>
       </c>
@@ -10735,7 +10713,7 @@
         <v>3</v>
       </c>
       <c r="J153" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -10762,7 +10740,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" ht="14.4" spans="1:18">
       <c r="A154" t="s">
         <v>275</v>
       </c>
@@ -10792,7 +10770,7 @@
         <v>3</v>
       </c>
       <c r="J154" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -10819,7 +10797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" ht="14.4" spans="1:18">
       <c r="A155" t="s">
         <v>277</v>
       </c>
@@ -10849,7 +10827,7 @@
         <v>3</v>
       </c>
       <c r="J155" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -10876,7 +10854,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" ht="14.4" spans="1:18">
       <c r="A156" t="s">
         <v>219</v>
       </c>
@@ -10906,7 +10884,7 @@
         <v>3</v>
       </c>
       <c r="J156" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K156">
         <v>0</v>
